--- a/date_tema.xlsx
+++ b/date_tema.xlsx
@@ -443,7 +443,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I46"/>
+  <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,9 +457,7 @@
     <col width="9.6" customWidth="1" min="4" max="4"/>
     <col width="9.6" customWidth="1" min="5" max="5"/>
     <col width="9.6" customWidth="1" min="6" max="6"/>
-    <col width="9.6" customWidth="1" min="7" max="7"/>
-    <col width="9.6" customWidth="1" min="8" max="8"/>
-    <col width="9.6" customWidth="1" min="9" max="9"/>
+    <col width="8.4" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -498,16 +496,6 @@
           <t>05.03</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>06.03</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>07.03</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -538,20 +526,8 @@
           <t>15893</t>
         </is>
       </c>
-      <c r="G2" s="2" t="inlineStr">
-        <is>
-          <t>51983</t>
-        </is>
-      </c>
-      <c r="H2" s="2" t="inlineStr">
-        <is>
-          <t>52046</t>
-        </is>
-      </c>
-      <c r="I2" s="2" t="inlineStr">
-        <is>
-          <t>52105</t>
-        </is>
+      <c r="G2" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -583,20 +559,8 @@
           <t>17713</t>
         </is>
       </c>
-      <c r="G3" s="2" t="inlineStr">
-        <is>
-          <t>66133</t>
-        </is>
-      </c>
-      <c r="H3" s="2" t="inlineStr">
-        <is>
-          <t>66180</t>
-        </is>
-      </c>
-      <c r="I3" s="2" t="inlineStr">
-        <is>
-          <t>66290</t>
-        </is>
+      <c r="G3" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -628,20 +592,8 @@
           <t>21442</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>72608</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>72648</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>72727</t>
-        </is>
+      <c r="G4" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -673,20 +625,8 @@
           <t>20740</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>59418</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>59445</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>59500</t>
-        </is>
+      <c r="G5" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -718,20 +658,8 @@
           <t>21796</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>78969</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>79006</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>79112</t>
-        </is>
+      <c r="G6" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -763,20 +691,8 @@
           <t>8975</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>29012</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>29021</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>29069</t>
-        </is>
+      <c r="G7" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -808,20 +724,8 @@
           <t>11199</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>34907</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>34922</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>34958</t>
-        </is>
+      <c r="G8" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -853,20 +757,8 @@
           <t>33047</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>103777</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>103971</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>104178</t>
-        </is>
+      <c r="G9" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -898,20 +790,8 @@
           <t>9976</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>30418</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>30432</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>30488</t>
-        </is>
+      <c r="G10" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -943,20 +823,8 @@
           <t>9698</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>39124</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>39152</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>39230</t>
-        </is>
+      <c r="G11" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -988,20 +856,8 @@
           <t>8487</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>28872</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>28906</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>28958</t>
-        </is>
+      <c r="G12" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1033,20 +889,8 @@
           <t>7735</t>
         </is>
       </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>24870</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>24900</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>24932</t>
-        </is>
+      <c r="G13" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1078,20 +922,8 @@
           <t>41337</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>150178</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>150381</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>150562</t>
-        </is>
+      <c r="G14" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1123,20 +955,8 @@
           <t>32770</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>111409</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>111498</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>111686</t>
-        </is>
+      <c r="G15" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1168,20 +988,8 @@
           <t>6033</t>
         </is>
       </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>18908</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>18929</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>18939</t>
-        </is>
+      <c r="G16" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1213,20 +1021,8 @@
           <t>18190</t>
         </is>
       </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>50402</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>50448</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>50517</t>
-        </is>
+      <c r="G17" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1258,20 +1054,8 @@
           <t>20123</t>
         </is>
       </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>69231</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>69261</t>
-        </is>
-      </c>
-      <c r="I18" s="2" t="inlineStr">
-        <is>
-          <t>69425</t>
-        </is>
+      <c r="G18" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1303,20 +1087,8 @@
           <t>20805</t>
         </is>
       </c>
-      <c r="G19" s="2" t="inlineStr">
-        <is>
-          <t>61251</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>61311</t>
-        </is>
-      </c>
-      <c r="I19" s="2" t="inlineStr">
-        <is>
-          <t>61406</t>
-        </is>
+      <c r="G19" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1348,20 +1120,8 @@
           <t>8064</t>
         </is>
       </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>27502</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>27543</t>
-        </is>
-      </c>
-      <c r="I20" s="2" t="inlineStr">
-        <is>
-          <t>27571</t>
-        </is>
+      <c r="G20" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1393,20 +1153,8 @@
           <t>7205</t>
         </is>
       </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>21305</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>21321</t>
-        </is>
-      </c>
-      <c r="I21" s="2" t="inlineStr">
-        <is>
-          <t>21355</t>
-        </is>
+      <c r="G21" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1438,20 +1186,8 @@
           <t>6333</t>
         </is>
       </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>21052</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>21056</t>
-        </is>
-      </c>
-      <c r="I22" s="2" t="inlineStr">
-        <is>
-          <t>21078</t>
-        </is>
+      <c r="G22" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1483,20 +1219,8 @@
           <t>16218</t>
         </is>
       </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>55174</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>55216</t>
-        </is>
-      </c>
-      <c r="I23" s="2" t="inlineStr">
-        <is>
-          <t>55278</t>
-        </is>
+      <c r="G23" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1528,20 +1252,8 @@
           <t>8376</t>
         </is>
       </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>26457</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>26473</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>26509</t>
-        </is>
+      <c r="G24" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1573,20 +1285,8 @@
           <t>34241</t>
         </is>
       </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>106250</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>106316</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>106493</t>
-        </is>
+      <c r="G25" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1618,20 +1318,8 @@
           <t>32186</t>
         </is>
       </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>114264</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>114411</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>114728</t>
-        </is>
+      <c r="G26" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1663,20 +1351,8 @@
           <t>17442</t>
         </is>
       </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>48855</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>48871</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>48920</t>
-        </is>
+      <c r="G27" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1708,20 +1384,8 @@
           <t>6191</t>
         </is>
       </c>
-      <c r="G28" s="2" t="inlineStr">
-        <is>
-          <t>21081</t>
-        </is>
-      </c>
-      <c r="H28" s="2" t="inlineStr">
-        <is>
-          <t>21108</t>
-        </is>
-      </c>
-      <c r="I28" s="2" t="inlineStr">
-        <is>
-          <t>21154</t>
-        </is>
+      <c r="G28" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1753,20 +1417,8 @@
           <t>18187</t>
         </is>
       </c>
-      <c r="G29" s="2" t="inlineStr">
-        <is>
-          <t>60710</t>
-        </is>
-      </c>
-      <c r="H29" s="2" t="inlineStr">
-        <is>
-          <t>60762</t>
-        </is>
-      </c>
-      <c r="I29" s="2" t="inlineStr">
-        <is>
-          <t>60803</t>
-        </is>
+      <c r="G29" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1798,20 +1450,8 @@
           <t>14334</t>
         </is>
       </c>
-      <c r="G30" s="2" t="inlineStr">
-        <is>
-          <t>44653</t>
-        </is>
-      </c>
-      <c r="H30" s="2" t="inlineStr">
-        <is>
-          <t>44669</t>
-        </is>
-      </c>
-      <c r="I30" s="2" t="inlineStr">
-        <is>
-          <t>44697</t>
-        </is>
+      <c r="G30" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1843,20 +1483,8 @@
           <t>11588</t>
         </is>
       </c>
-      <c r="G31" s="2" t="inlineStr">
-        <is>
-          <t>37452</t>
-        </is>
-      </c>
-      <c r="H31" s="2" t="inlineStr">
-        <is>
-          <t>37482</t>
-        </is>
-      </c>
-      <c r="I31" s="2" t="inlineStr">
-        <is>
-          <t>37541</t>
-        </is>
+      <c r="G31" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1888,20 +1516,8 @@
           <t>27588</t>
         </is>
       </c>
-      <c r="G32" s="2" t="inlineStr">
-        <is>
-          <t>94690</t>
-        </is>
-      </c>
-      <c r="H32" s="2" t="inlineStr">
-        <is>
-          <t>94775</t>
-        </is>
-      </c>
-      <c r="I32" s="2" t="inlineStr">
-        <is>
-          <t>94967</t>
-        </is>
+      <c r="G32" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1933,20 +1549,8 @@
           <t>10190</t>
         </is>
       </c>
-      <c r="G33" s="2" t="inlineStr">
-        <is>
-          <t>31654</t>
-        </is>
-      </c>
-      <c r="H33" s="2" t="inlineStr">
-        <is>
-          <t>31661</t>
-        </is>
-      </c>
-      <c r="I33" s="2" t="inlineStr">
-        <is>
-          <t>31675</t>
-        </is>
+      <c r="G33" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1978,20 +1582,8 @@
           <t>8278</t>
         </is>
       </c>
-      <c r="G34" s="2" t="inlineStr">
-        <is>
-          <t>25848</t>
-        </is>
-      </c>
-      <c r="H34" s="2" t="inlineStr">
-        <is>
-          <t>25872</t>
-        </is>
-      </c>
-      <c r="I34" s="2" t="inlineStr">
-        <is>
-          <t>25892</t>
-        </is>
+      <c r="G34" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -2023,20 +1615,8 @@
           <t>20466</t>
         </is>
       </c>
-      <c r="G35" s="2" t="inlineStr">
-        <is>
-          <t>74202</t>
-        </is>
-      </c>
-      <c r="H35" s="2" t="inlineStr">
-        <is>
-          <t>74273</t>
-        </is>
-      </c>
-      <c r="I35" s="2" t="inlineStr">
-        <is>
-          <t>74444</t>
-        </is>
+      <c r="G35" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -2068,20 +1648,8 @@
           <t>21327</t>
         </is>
       </c>
-      <c r="G36" s="2" t="inlineStr">
-        <is>
-          <t>56884</t>
-        </is>
-      </c>
-      <c r="H36" s="2" t="inlineStr">
-        <is>
-          <t>56906</t>
-        </is>
-      </c>
-      <c r="I36" s="2" t="inlineStr">
-        <is>
-          <t>56945</t>
-        </is>
+      <c r="G36" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -2113,20 +1681,8 @@
           <t>10096</t>
         </is>
       </c>
-      <c r="G37" s="2" t="inlineStr">
-        <is>
-          <t>32792</t>
-        </is>
-      </c>
-      <c r="H37" s="2" t="inlineStr">
-        <is>
-          <t>32842</t>
-        </is>
-      </c>
-      <c r="I37" s="2" t="inlineStr">
-        <is>
-          <t>32914</t>
-        </is>
+      <c r="G37" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -2158,20 +1714,8 @@
           <t>40720</t>
         </is>
       </c>
-      <c r="G38" s="2" t="inlineStr">
-        <is>
-          <t>143119</t>
-        </is>
-      </c>
-      <c r="H38" s="2" t="inlineStr">
-        <is>
-          <t>143247</t>
-        </is>
-      </c>
-      <c r="I38" s="2" t="inlineStr">
-        <is>
-          <t>143615</t>
-        </is>
+      <c r="G38" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -2203,20 +1747,8 @@
           <t>6531</t>
         </is>
       </c>
-      <c r="G39" s="2" t="inlineStr">
-        <is>
-          <t>20128</t>
-        </is>
-      </c>
-      <c r="H39" s="2" t="inlineStr">
-        <is>
-          <t>20131</t>
-        </is>
-      </c>
-      <c r="I39" s="2" t="inlineStr">
-        <is>
-          <t>20142</t>
-        </is>
+      <c r="G39" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -2248,20 +1780,8 @@
           <t>13227</t>
         </is>
       </c>
-      <c r="G40" s="2" t="inlineStr">
-        <is>
-          <t>35449</t>
-        </is>
-      </c>
-      <c r="H40" s="2" t="inlineStr">
-        <is>
-          <t>35473</t>
-        </is>
-      </c>
-      <c r="I40" s="2" t="inlineStr">
-        <is>
-          <t>35526</t>
-        </is>
+      <c r="G40" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -2293,20 +1813,8 @@
           <t>12202</t>
         </is>
       </c>
-      <c r="G41" s="2" t="inlineStr">
-        <is>
-          <t>39696</t>
-        </is>
-      </c>
-      <c r="H41" s="2" t="inlineStr">
-        <is>
-          <t>39737</t>
-        </is>
-      </c>
-      <c r="I41" s="2" t="inlineStr">
-        <is>
-          <t>39795</t>
-        </is>
+      <c r="G41" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -2338,20 +1846,8 @@
           <t>8421</t>
         </is>
       </c>
-      <c r="G42" s="2" t="inlineStr">
-        <is>
-          <t>25474</t>
-        </is>
-      </c>
-      <c r="H42" s="2" t="inlineStr">
-        <is>
-          <t>25493</t>
-        </is>
-      </c>
-      <c r="I42" s="2" t="inlineStr">
-        <is>
-          <t>25517</t>
-        </is>
+      <c r="G42" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -2383,20 +1879,8 @@
           <t>132452</t>
         </is>
       </c>
-      <c r="G43" s="2" t="inlineStr">
-        <is>
-          <t>516285</t>
-        </is>
-      </c>
-      <c r="H43" s="2" t="inlineStr">
-        <is>
-          <t>517433</t>
-        </is>
-      </c>
-      <c r="I43" s="2" t="inlineStr">
-        <is>
-          <t>518897</t>
-        </is>
+      <c r="G43" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -2426,20 +1910,8 @@
       <c r="F44" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="G44" s="2" t="inlineStr">
-        <is>
-          <t>4136</t>
-        </is>
-      </c>
-      <c r="H44" s="2" t="inlineStr">
-        <is>
-          <t>4141</t>
-        </is>
-      </c>
-      <c r="I44" s="2" t="inlineStr">
-        <is>
-          <t>4148</t>
-        </is>
+      <c r="G44" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -2467,18 +1939,8 @@
           <t>3109</t>
         </is>
       </c>
-      <c r="G45" s="2" t="inlineStr">
-        <is>
-          <t>1679</t>
-        </is>
-      </c>
-      <c r="H45" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" s="2" t="inlineStr">
-        <is>
-          <t>2224</t>
-        </is>
+      <c r="G45" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -2501,13 +1963,7 @@
         <v>825273</v>
       </c>
       <c r="G46" s="2" t="n">
-        <v>2771353</v>
-      </c>
-      <c r="H46" s="2" t="n">
-        <v>2769669</v>
-      </c>
-      <c r="I46" s="2" t="n">
-        <v>2782371</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
